--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_159.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_159.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_8</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.03300808475048787</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb:7', 'Eb:7']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(21.26, 25.32)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(36.2, 40.68)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1859649122807017</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2701149425287356</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(23.586235, 29.611814)]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(21.213174, 25.532085)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:26.040000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:10.260000', '0:00:24.700000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1547619047619048</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.480839, 6.357029)]</t>
+          <t>[['Bb', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Bb'], ['Bb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:21.680000', '0:00:32.360000'), ('0:01:16.560000', '0:01:20.800000'), ('0:00:02.500000', '0:00:26.200000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:48.170328', '0:00:55.589104'), ('0:00:49.981485', '0:00:59.292687'), ('0:00:26.041712', '0:00:37.106020')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4539473684210527</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_265</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3296703296703297</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(53.176848, 58.331678)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.337709, 19.847823)]</t>
+          <t>[('0:01:45.425056', '0:01:55.003287')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['A:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1261904761904762</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['B', 'E', 'A']]</t>
+          <t>[['Ab', 'Eb', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361), (60.898, 67.056)]</t>
+          <t>[['C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(17.886772, 23.088042), (13.8465, 18.745911)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:25.942000', '0:00:29.102000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:59.224321', '0:01:05.737518')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(31.0, 43.66)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(100.74, 121.4)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1632352941176471</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.162102, 14.073123)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(25.015959, 36.625937)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1416666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.192174, 27.488682)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.0, 2.43)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.147562582345191</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.16, 20.68)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(66.93, 74.44)]</t>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1201923076923077</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
-        </is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.168, 18.573)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.2, 12.32)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:46.932280', '0:01:01.200942')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:07.525011', '0:00:20.319206')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1214285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D'], ['E:min', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.219991, 14.772644), (16.560579, 21.866339)]</t>
+          <t>[['C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.78, 19.18), (79.72, 84.58)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:10.519024', '0:01:15.720294')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(207.92, 219.14)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(64.08, 73.88)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.22, 27.17)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_201</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(42.9, 45.16)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(122.674, 126.958)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
